--- a/main/data/regex_match.xlsx
+++ b/main/data/regex_match.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.98894119262695</v>
+        <v>15.84219932556152</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.84596252441406</v>
+        <v>15.38395881652832</v>
       </c>
       <c r="D3" t="n">
-        <v>496</v>
+        <v>176</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.97692680358887</v>
+        <v>21.89183235168457</v>
       </c>
       <c r="D4" t="n">
-        <v>496</v>
+        <v>176</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.47808265686035</v>
+        <v>16.91484451293945</v>
       </c>
       <c r="D5" t="n">
-        <v>992</v>
+        <v>176</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.91517639160156</v>
+        <v>16.65210723876953</v>
       </c>
       <c r="D6" t="n">
-        <v>2856</v>
+        <v>177</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/regex_match.xlsx
+++ b/main/data/regex_match.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15.84219932556152</v>
+        <v>17.73285865783691</v>
       </c>
       <c r="D2" t="n">
         <v>177</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.38395881652832</v>
+        <v>16.88194274902344</v>
       </c>
       <c r="D3" t="n">
         <v>176</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.89183235168457</v>
+        <v>17.92383193969727</v>
       </c>
       <c r="D4" t="n">
         <v>176</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.91484451293945</v>
+        <v>15.71798324584961</v>
       </c>
       <c r="D5" t="n">
         <v>176</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.65210723876953</v>
+        <v>15.77877998352051</v>
       </c>
       <c r="D6" t="n">
         <v>177</v>

--- a/main/data/regex_match.xlsx
+++ b/main/data/regex_match.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.73285865783691</v>
+        <v>18.13101768493652</v>
       </c>
       <c r="D2" t="n">
         <v>177</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.88194274902344</v>
+        <v>16.71600341796875</v>
       </c>
       <c r="D3" t="n">
         <v>176</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.92383193969727</v>
+        <v>16.2808895111084</v>
       </c>
       <c r="D4" t="n">
         <v>176</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.71798324584961</v>
+        <v>16.20316505432129</v>
       </c>
       <c r="D5" t="n">
         <v>176</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.77877998352051</v>
+        <v>16.35098457336426</v>
       </c>
       <c r="D6" t="n">
         <v>177</v>
